--- a/data/trans_orig/P16A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F98F3B7-BD60-4C76-870C-52EE5DDC1135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CDFBBF-20B2-43DD-BB00-255C4E1899A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{252A012B-0D2E-4C15-BCB3-03CCAB82A3B9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E758C8D-3687-4F56-8A42-B507D39B9EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -125,1282 +125,1270 @@
     <t>0,24%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>50,97%</t>
   </si>
   <si>
     <t>39,82%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>43,08%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>23,13%</t>
@@ -1409,31 +1397,31 @@
     <t>20,47%</t>
   </si>
   <si>
-    <t>30,5%</t>
+    <t>31,99%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>69,5%</t>
+    <t>68,01%</t>
   </si>
   <si>
     <t>79,53%</t>
@@ -1442,10 +1430,10 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306636FF-BE54-4199-A2E6-19BDF29BEBB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964BA61-E1CC-485D-A79D-D4F6B58D17E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2166,13 +2154,13 @@
         <v>6494</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,10 +2175,10 @@
         <v>733723</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2202,13 +2190,13 @@
         <v>620766</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>1287</v>
@@ -2217,13 +2205,13 @@
         <v>1354488</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,7 +2267,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2291,13 +2279,13 @@
         <v>16655</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2306,13 +2294,13 @@
         <v>28780</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -2321,13 +2309,13 @@
         <v>45435</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2330,13 @@
         <v>620994</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>630</v>
@@ -2357,13 +2345,13 @@
         <v>660964</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>1225</v>
@@ -2372,13 +2360,13 @@
         <v>1281959</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2446,13 +2434,13 @@
         <v>66073</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -2461,13 +2449,13 @@
         <v>54706</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -2476,13 +2464,13 @@
         <v>120779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2485,13 @@
         <v>453074</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>448</v>
@@ -2512,13 +2500,13 @@
         <v>460936</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
@@ -2527,13 +2515,13 @@
         <v>914010</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2601,13 +2589,13 @@
         <v>117256</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -2616,13 +2604,13 @@
         <v>130658</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>245</v>
@@ -2631,13 +2619,13 @@
         <v>247914</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2640,13 @@
         <v>269454</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -2667,13 +2655,13 @@
         <v>273328</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>543</v>
@@ -2682,13 +2670,13 @@
         <v>542782</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2732,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2756,13 +2744,13 @@
         <v>211031</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>333</v>
@@ -2771,13 +2759,13 @@
         <v>344512</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>552</v>
@@ -2786,13 +2774,13 @@
         <v>555543</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2795,13 @@
         <v>291435</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>328</v>
@@ -2822,13 +2810,13 @@
         <v>332330</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>632</v>
@@ -2837,13 +2825,13 @@
         <v>623765</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2899,13 @@
         <v>413562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>548</v>
@@ -2926,13 +2914,13 @@
         <v>563384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>968</v>
@@ -2941,13 +2929,13 @@
         <v>976946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,16 +2947,16 @@
         <v>2793</v>
       </c>
       <c r="D23" s="7">
-        <v>2861963</v>
+        <v>2861964</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>2749</v>
@@ -2977,28 +2965,28 @@
         <v>2815814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>5542</v>
       </c>
       <c r="N23" s="7">
-        <v>5677776</v>
+        <v>5677777</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +2998,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -3040,7 +3028,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -3054,7 +3042,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42348909-A067-4BBB-94D4-F86237736948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0A13A-7D32-4EE1-A661-C89440233D19}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3200,13 +3188,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3221,7 +3209,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3230,13 +3218,13 @@
         <v>960</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,10 +3239,10 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3269,7 +3257,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3281,10 +3269,10 @@
         <v>881485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3355,13 +3343,13 @@
         <v>6835</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3370,13 +3358,13 @@
         <v>8515</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3385,13 +3373,13 @@
         <v>15350</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3394,13 @@
         <v>679403</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3421,13 +3409,13 @@
         <v>600699</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3436,13 +3424,13 @@
         <v>1280101</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3486,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3498,13 @@
         <v>31364</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3525,13 +3513,13 @@
         <v>22579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3540,13 +3528,13 @@
         <v>53943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3549,13 @@
         <v>648690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -3576,13 +3564,13 @@
         <v>683356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -3591,13 +3579,13 @@
         <v>1332046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,7 +3641,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3665,13 +3653,13 @@
         <v>72529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -3680,13 +3668,13 @@
         <v>81078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -3695,13 +3683,13 @@
         <v>153607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3704,13 @@
         <v>542088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -3731,13 +3719,13 @@
         <v>532994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>945</v>
@@ -3746,13 +3734,13 @@
         <v>1075082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3796,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3820,13 +3808,13 @@
         <v>151348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>163</v>
@@ -3835,13 +3823,13 @@
         <v>177934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -3850,13 +3838,13 @@
         <v>329282</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3859,13 @@
         <v>276996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>242</v>
@@ -3886,13 +3874,13 @@
         <v>268741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
@@ -3901,13 +3889,13 @@
         <v>545736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3951,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3975,13 +3963,13 @@
         <v>306318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -3990,13 +3978,13 @@
         <v>451435</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>701</v>
@@ -4005,13 +3993,13 @@
         <v>757753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4014,13 @@
         <v>253319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -4041,13 +4029,13 @@
         <v>290357</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>496</v>
@@ -4056,13 +4044,13 @@
         <v>543676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4118,13 @@
         <v>569354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
         <v>688</v>
@@ -4145,28 +4133,28 @@
         <v>741541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>1206</v>
       </c>
       <c r="N22" s="7">
-        <v>1310895</v>
+        <v>1310894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4169,13 @@
         <v>2852640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>2600</v>
@@ -4196,13 +4184,13 @@
         <v>2805487</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>5286</v>
@@ -4211,13 +4199,13 @@
         <v>5658127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,7 +4247,7 @@
         <v>6492</v>
       </c>
       <c r="N24" s="7">
-        <v>6969022</v>
+        <v>6969021</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -4273,7 +4261,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33F171E-7445-4FEB-860C-012A38EE42A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F516FC8-4D8D-4089-B652-89EE4EB023F8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4312,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,7 +4413,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4434,13 +4422,13 @@
         <v>902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4449,13 +4437,13 @@
         <v>902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4461,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4485,10 +4473,10 @@
         <v>394853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4500,10 +4488,10 @@
         <v>814316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4574,13 +4562,13 @@
         <v>5633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4589,13 +4577,13 @@
         <v>1895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4604,13 +4592,13 @@
         <v>7529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4613,13 @@
         <v>584863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -4640,10 +4628,10 @@
         <v>561649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4655,13 +4643,13 @@
         <v>1146511</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,7 +4705,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4729,13 +4717,13 @@
         <v>21270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4744,13 +4732,13 @@
         <v>15256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4759,13 +4747,13 @@
         <v>36526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4768,13 @@
         <v>647827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>650</v>
@@ -4795,13 +4783,13 @@
         <v>646130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -4810,13 +4798,13 @@
         <v>1293957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4860,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4884,13 +4872,13 @@
         <v>88877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4899,13 +4887,13 @@
         <v>61417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4914,13 +4902,13 @@
         <v>150294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4923,13 @@
         <v>557171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>546</v>
@@ -4950,28 +4938,28 @@
         <v>587660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
       </c>
       <c r="N14" s="7">
-        <v>1144831</v>
+        <v>1144832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +5001,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -5027,7 +5015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5039,13 +5027,13 @@
         <v>106585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5054,13 +5042,13 @@
         <v>150066</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -5069,13 +5057,13 @@
         <v>256651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5078,13 @@
         <v>371333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5105,13 +5093,13 @@
         <v>346783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -5120,13 +5108,13 @@
         <v>718116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,7 +5170,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5194,13 +5182,13 @@
         <v>281223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>330</v>
@@ -5209,13 +5197,13 @@
         <v>399988</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>631</v>
@@ -5224,13 +5212,13 @@
         <v>681210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5233,13 @@
         <v>310105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
@@ -5260,13 +5248,13 @@
         <v>377943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>651</v>
@@ -5275,13 +5263,13 @@
         <v>688049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5337,13 @@
         <v>503588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>537</v>
@@ -5364,13 +5352,13 @@
         <v>629524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>1038</v>
@@ -5379,13 +5367,13 @@
         <v>1133112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5388,13 @@
         <v>2890762</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>2801</v>
@@ -5415,13 +5403,13 @@
         <v>2915018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
         <v>5531</v>
@@ -5430,13 +5418,13 @@
         <v>5805780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,7 +5480,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5514,7 +5502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C518FCF-522B-46F3-83A7-BBCCA85E3792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A28DF76-154F-4EE8-A8B3-C076DAB49D6B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5531,7 +5519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5638,13 +5626,13 @@
         <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5653,13 +5641,13 @@
         <v>2243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5668,13 +5656,13 @@
         <v>2404</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,10 +5677,10 @@
         <v>377518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5704,10 +5692,10 @@
         <v>352714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5719,10 +5707,10 @@
         <v>730232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5793,13 +5781,13 @@
         <v>2109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5808,13 +5796,13 @@
         <v>5006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5823,13 +5811,13 @@
         <v>7115</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,10 +5832,10 @@
         <v>426287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5859,13 +5847,13 @@
         <v>493571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>755</v>
@@ -5874,13 +5862,13 @@
         <v>919858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +5924,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5948,13 +5936,13 @@
         <v>19668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5963,13 +5951,13 @@
         <v>11411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5978,13 +5966,13 @@
         <v>31079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5987,13 @@
         <v>537584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>827</v>
@@ -6014,13 +6002,13 @@
         <v>572065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -6029,13 +6017,13 @@
         <v>1109648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6079,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6103,13 +6091,13 @@
         <v>98458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -6118,13 +6106,13 @@
         <v>94130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -6133,13 +6121,13 @@
         <v>192588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6142,13 @@
         <v>625532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>1005</v>
@@ -6169,28 +6157,28 @@
         <v>653131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
       </c>
       <c r="N14" s="7">
-        <v>1278664</v>
+        <v>1278663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6220,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6246,7 +6234,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6258,13 +6246,13 @@
         <v>168467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -6273,13 +6261,13 @@
         <v>149737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>453</v>
@@ -6288,13 +6276,13 @@
         <v>318204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6297,13 @@
         <v>430619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>739</v>
@@ -6324,13 +6312,13 @@
         <v>443839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>1209</v>
@@ -6339,13 +6327,13 @@
         <v>874458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,7 +6389,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6413,13 +6401,13 @@
         <v>363187</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>966</v>
@@ -6428,13 +6416,13 @@
         <v>617071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>1514</v>
@@ -6443,13 +6431,13 @@
         <v>980258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6452,13 @@
         <v>333625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>740</v>
@@ -6479,13 +6467,13 @@
         <v>408300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>1219</v>
@@ -6494,13 +6482,13 @@
         <v>741925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6556,13 @@
         <v>652050</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>1388</v>
@@ -6583,13 +6571,13 @@
         <v>879597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>2247</v>
@@ -6598,13 +6586,13 @@
         <v>1531647</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,16 +6604,16 @@
         <v>2515</v>
       </c>
       <c r="D23" s="7">
-        <v>2731164</v>
+        <v>2731165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>3972</v>
@@ -6634,28 +6622,28 @@
         <v>2923621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>6487</v>
       </c>
       <c r="N23" s="7">
-        <v>5654785</v>
+        <v>5654786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,7 +6655,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383214</v>
+        <v>3383215</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -6697,7 +6685,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7186432</v>
+        <v>7186433</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -6711,7 +6699,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CDFBBF-20B2-43DD-BB00-255C4E1899A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BFF1A6E-BF29-4268-9F81-718A3E61A2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E758C8D-3687-4F56-8A42-B507D39B9EFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C945232E-8800-4E75-880E-035EC59EE283}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="475">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1080 +80,1116 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
     <t>97,42%</t>
   </si>
   <si>
@@ -1181,9 +1217,6 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
     <t>2,72%</t>
   </si>
   <si>
@@ -1203,9 +1236,6 @@
   </si>
   <si>
     <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
   </si>
   <si>
     <t>98,83%</t>
@@ -1845,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964BA61-E1CC-485D-A79D-D4F6B58D17E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA7078-9D4F-4B07-B65E-5BDC4B9E33F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2154,13 +2184,13 @@
         <v>6494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,10 +2205,10 @@
         <v>733723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2190,13 +2220,13 @@
         <v>620766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>1287</v>
@@ -2205,13 +2235,13 @@
         <v>1354488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2297,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2309,13 @@
         <v>16655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2294,13 +2324,13 @@
         <v>28780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -2309,13 +2339,13 @@
         <v>45435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2360,13 @@
         <v>620994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>630</v>
@@ -2345,13 +2375,13 @@
         <v>660964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>1225</v>
@@ -2360,13 +2390,13 @@
         <v>1281959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2452,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2434,13 +2464,13 @@
         <v>66073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -2449,13 +2479,13 @@
         <v>54706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -2464,13 +2494,13 @@
         <v>120779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2515,13 @@
         <v>453074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>448</v>
@@ -2500,13 +2530,13 @@
         <v>460936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
@@ -2515,13 +2545,13 @@
         <v>914010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2607,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2619,13 @@
         <v>117256</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -2604,13 +2634,13 @@
         <v>130658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>245</v>
@@ -2619,13 +2649,13 @@
         <v>247914</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2670,13 @@
         <v>269454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -2655,13 +2685,13 @@
         <v>273328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>543</v>
@@ -2670,13 +2700,13 @@
         <v>542782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,7 +2762,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2774,13 @@
         <v>211031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>333</v>
@@ -2759,13 +2789,13 @@
         <v>344512</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>552</v>
@@ -2774,13 +2804,13 @@
         <v>555543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2825,13 @@
         <v>291435</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>328</v>
@@ -2810,13 +2840,13 @@
         <v>332330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>632</v>
@@ -2825,13 +2855,13 @@
         <v>623765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2929,13 @@
         <v>413562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>548</v>
@@ -2914,13 +2944,13 @@
         <v>563384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>968</v>
@@ -2929,13 +2959,13 @@
         <v>976946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,16 +2977,16 @@
         <v>2793</v>
       </c>
       <c r="D23" s="7">
-        <v>2861964</v>
+        <v>2861963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>2749</v>
@@ -2965,13 +2995,13 @@
         <v>2815814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>5542</v>
@@ -2980,13 +3010,13 @@
         <v>5677777</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +3028,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -3042,7 +3072,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0A13A-7D32-4EE1-A661-C89440233D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AA228D-3C5F-4F53-AAE9-177752B6A1E0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3081,7 +3111,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3188,13 +3218,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3209,7 +3239,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3218,13 +3248,13 @@
         <v>960</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,10 +3269,10 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3257,7 +3287,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3269,10 +3299,10 @@
         <v>881485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3343,13 +3373,13 @@
         <v>6835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3358,13 +3388,13 @@
         <v>8515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3373,13 +3403,13 @@
         <v>15350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3424,13 @@
         <v>679403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3409,13 +3439,13 @@
         <v>600699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3424,13 +3454,13 @@
         <v>1280101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +3516,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3498,13 +3528,13 @@
         <v>31364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3513,13 +3543,13 @@
         <v>22579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3528,13 +3558,13 @@
         <v>53943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3579,13 @@
         <v>648690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -3564,13 +3594,13 @@
         <v>683356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -3579,13 +3609,13 @@
         <v>1332046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3671,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3653,13 +3683,13 @@
         <v>72529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -3668,13 +3698,13 @@
         <v>81078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -3683,13 +3713,13 @@
         <v>153607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3734,13 @@
         <v>542088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -3719,13 +3749,13 @@
         <v>532994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>945</v>
@@ -3734,13 +3764,13 @@
         <v>1075082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3826,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3808,13 +3838,13 @@
         <v>151348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>163</v>
@@ -3823,13 +3853,13 @@
         <v>177934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -3838,13 +3868,13 @@
         <v>329282</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3889,13 @@
         <v>276996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>242</v>
@@ -3874,13 +3904,13 @@
         <v>268741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
@@ -3889,13 +3919,13 @@
         <v>545736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3981,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3963,13 +3993,13 @@
         <v>306318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -3978,13 +4008,13 @@
         <v>451435</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>701</v>
@@ -3993,13 +4023,13 @@
         <v>757753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4044,13 @@
         <v>253319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -4029,13 +4059,13 @@
         <v>290357</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>496</v>
@@ -4044,13 +4074,13 @@
         <v>543676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4148,13 @@
         <v>569354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>688</v>
@@ -4133,13 +4163,13 @@
         <v>741541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>1206</v>
@@ -4148,13 +4178,13 @@
         <v>1310894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4199,13 @@
         <v>2852640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>2600</v>
@@ -4184,13 +4214,13 @@
         <v>2805487</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>5286</v>
@@ -4199,13 +4229,13 @@
         <v>5658127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,7 +4291,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F516FC8-4D8D-4089-B652-89EE4EB023F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AED712-AEC3-4B90-8345-FBE09C81CC01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4300,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4413,7 +4443,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4422,13 +4452,13 @@
         <v>902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4437,13 +4467,13 @@
         <v>902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4491,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4473,10 +4503,10 @@
         <v>394853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4488,10 +4518,10 @@
         <v>814316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4562,13 +4592,13 @@
         <v>5633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4577,13 +4607,13 @@
         <v>1895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4592,13 +4622,13 @@
         <v>7529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4643,13 @@
         <v>584863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -4628,10 +4658,10 @@
         <v>561649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4643,13 +4673,13 @@
         <v>1146511</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4735,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4747,13 @@
         <v>21270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4732,13 +4762,13 @@
         <v>15256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4747,13 +4777,13 @@
         <v>36526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4798,13 @@
         <v>647827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>650</v>
@@ -4783,13 +4813,13 @@
         <v>646130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -4798,13 +4828,13 @@
         <v>1293957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4890,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4872,13 +4902,13 @@
         <v>88877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4887,13 +4917,13 @@
         <v>61417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4902,13 +4932,13 @@
         <v>150294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4953,13 @@
         <v>557171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>546</v>
@@ -4938,28 +4968,28 @@
         <v>587660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
       </c>
       <c r="N14" s="7">
-        <v>1144832</v>
+        <v>1144831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5031,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -5015,7 +5045,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5027,13 +5057,13 @@
         <v>106585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5042,13 +5072,13 @@
         <v>150066</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -5057,13 +5087,13 @@
         <v>256651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5108,13 @@
         <v>371333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5093,13 +5123,13 @@
         <v>346783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -5108,13 +5138,13 @@
         <v>718116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5200,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5182,13 +5212,13 @@
         <v>281223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>330</v>
@@ -5197,13 +5227,13 @@
         <v>399988</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>631</v>
@@ -5212,13 +5242,13 @@
         <v>681210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5263,13 @@
         <v>310105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
@@ -5248,13 +5278,13 @@
         <v>377943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>651</v>
@@ -5263,13 +5293,13 @@
         <v>688049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5367,13 @@
         <v>503588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>537</v>
@@ -5352,13 +5382,13 @@
         <v>629524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>1038</v>
@@ -5367,13 +5397,13 @@
         <v>1133112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5418,13 @@
         <v>2890762</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H23" s="7">
         <v>2801</v>
@@ -5403,13 +5433,13 @@
         <v>2915018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M23" s="7">
         <v>5531</v>
@@ -5418,13 +5448,13 @@
         <v>5805780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A28DF76-154F-4EE8-A8B3-C076DAB49D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB6BC6D-C2B1-4D8A-9030-2B5C7BBE0F3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,7 +5549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5626,13 +5656,13 @@
         <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5641,13 +5671,13 @@
         <v>2243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5656,13 +5686,13 @@
         <v>2404</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,10 +5707,10 @@
         <v>377518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5692,10 +5722,10 @@
         <v>352714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5707,10 +5737,10 @@
         <v>730232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5781,13 +5811,13 @@
         <v>2109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5796,13 +5826,13 @@
         <v>5006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5811,13 +5841,13 @@
         <v>7115</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,10 +5862,10 @@
         <v>426287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5847,13 +5877,13 @@
         <v>493571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>755</v>
@@ -5862,13 +5892,13 @@
         <v>919858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,7 +5954,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5936,13 +5966,13 @@
         <v>19668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5951,13 +5981,13 @@
         <v>11411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5966,13 +5996,13 @@
         <v>31079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6017,13 @@
         <v>537584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>827</v>
@@ -6002,13 +6032,13 @@
         <v>572065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -6017,13 +6047,13 @@
         <v>1109648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6109,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6091,13 +6121,13 @@
         <v>98458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -6106,13 +6136,13 @@
         <v>94130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -6121,13 +6151,13 @@
         <v>192588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6172,13 @@
         <v>625532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>1005</v>
@@ -6157,13 +6187,13 @@
         <v>653131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
@@ -6172,13 +6202,13 @@
         <v>1278663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,7 +6264,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6246,13 +6276,13 @@
         <v>168467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -6261,13 +6291,13 @@
         <v>149737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>453</v>
@@ -6276,13 +6306,13 @@
         <v>318204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6327,13 @@
         <v>430619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7">
         <v>739</v>
@@ -6312,13 +6342,13 @@
         <v>443839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>1209</v>
@@ -6327,13 +6357,13 @@
         <v>874458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6419,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6401,13 +6431,13 @@
         <v>363187</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H19" s="7">
         <v>966</v>
@@ -6416,13 +6446,13 @@
         <v>617071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M19" s="7">
         <v>1514</v>
@@ -6431,13 +6461,13 @@
         <v>980258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6482,13 @@
         <v>333625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="H20" s="7">
         <v>740</v>
@@ -6467,13 +6497,13 @@
         <v>408300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="M20" s="7">
         <v>1219</v>
@@ -6482,13 +6512,13 @@
         <v>741925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6586,13 @@
         <v>652050</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>1388</v>
@@ -6571,13 +6601,13 @@
         <v>879597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>2247</v>
@@ -6586,13 +6616,13 @@
         <v>1531647</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6637,13 @@
         <v>2731165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H23" s="7">
         <v>3972</v>
@@ -6622,13 +6652,13 @@
         <v>2923621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M23" s="7">
         <v>6487</v>
@@ -6637,13 +6667,13 @@
         <v>5654786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,7 +6729,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BFF1A6E-BF29-4268-9F81-718A3E61A2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1854FB-9A53-4386-AF83-BF64D4DDF169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C945232E-8800-4E75-880E-035EC59EE283}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4551598-2872-4966-9293-3E5DA835920A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="469">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,16%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,1366 +92,1348 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>68,01%</t>
+    <t>69,5%</t>
   </si>
   <si>
     <t>79,53%</t>
@@ -1460,10 +1442,10 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA7078-9D4F-4B07-B65E-5BDC4B9E33F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F6EA8-8B7B-4C9E-AEE7-E1EB98B0A50C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3007,7 +2989,7 @@
         <v>5542</v>
       </c>
       <c r="N23" s="7">
-        <v>5677777</v>
+        <v>5677776</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>134</v>
@@ -3058,7 +3040,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -3094,7 +3076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AA228D-3C5F-4F53-AAE9-177752B6A1E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB091299-393B-4F51-97B5-5B991E0EF215}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3224,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3239,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3272,7 +3254,7 @@
         <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3287,7 +3269,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3993,13 +3975,13 @@
         <v>306318</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -4008,13 +3990,13 @@
         <v>451435</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>701</v>
@@ -4023,13 +4005,13 @@
         <v>757753</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4026,13 @@
         <v>253319</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -4059,13 +4041,13 @@
         <v>290357</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>496</v>
@@ -4074,13 +4056,13 @@
         <v>543676</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4130,13 @@
         <v>569354</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>688</v>
@@ -4163,28 +4145,28 @@
         <v>741541</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>1206</v>
       </c>
       <c r="N22" s="7">
-        <v>1310894</v>
+        <v>1310895</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4181,13 @@
         <v>2852640</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>2600</v>
@@ -4214,13 +4196,13 @@
         <v>2805487</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>5286</v>
@@ -4229,13 +4211,13 @@
         <v>5658127</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4259,7 @@
         <v>6492</v>
       </c>
       <c r="N24" s="7">
-        <v>6969021</v>
+        <v>6969022</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -4313,7 +4295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AED712-AEC3-4B90-8345-FBE09C81CC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1668E-BF25-4096-A517-359E02A5E181}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4330,7 +4312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4443,7 +4425,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4452,13 +4434,13 @@
         <v>902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4473,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4473,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4503,10 +4485,10 @@
         <v>394853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4521,7 +4503,7 @@
         <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4592,13 +4574,13 @@
         <v>5633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4607,13 +4589,13 @@
         <v>1895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4622,13 +4604,13 @@
         <v>7529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4625,13 @@
         <v>584863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -4658,10 +4640,10 @@
         <v>561649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4673,13 +4655,13 @@
         <v>1146511</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4729,13 @@
         <v>21270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4762,13 +4744,13 @@
         <v>15256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4777,13 +4759,13 @@
         <v>36526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4780,13 @@
         <v>647827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>650</v>
@@ -4813,13 +4795,13 @@
         <v>646130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -4828,13 +4810,13 @@
         <v>1293957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4884,13 @@
         <v>88877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4917,13 +4899,13 @@
         <v>61417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4932,13 +4914,13 @@
         <v>150294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4935,13 @@
         <v>557171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>546</v>
@@ -4968,13 +4950,13 @@
         <v>587660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
@@ -4983,13 +4965,13 @@
         <v>1144831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5039,13 @@
         <v>106585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5072,13 +5054,13 @@
         <v>150066</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -5087,13 +5069,13 @@
         <v>256651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5090,13 @@
         <v>371333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5123,13 +5105,13 @@
         <v>346783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -5138,13 +5120,13 @@
         <v>718116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5194,13 @@
         <v>281223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>330</v>
@@ -5227,13 +5209,13 @@
         <v>399988</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>631</v>
@@ -5242,13 +5224,13 @@
         <v>681210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5245,13 @@
         <v>310105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
@@ -5278,13 +5260,13 @@
         <v>377943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>651</v>
@@ -5293,13 +5275,13 @@
         <v>688049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5349,13 @@
         <v>503588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H22" s="7">
         <v>537</v>
@@ -5382,13 +5364,13 @@
         <v>629524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M22" s="7">
         <v>1038</v>
@@ -5397,13 +5379,13 @@
         <v>1133112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5400,13 @@
         <v>2890762</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H23" s="7">
         <v>2801</v>
@@ -5433,13 +5415,13 @@
         <v>2915018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>5531</v>
@@ -5448,13 +5430,13 @@
         <v>5805780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB6BC6D-C2B1-4D8A-9030-2B5C7BBE0F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2C467-B16D-4424-84D0-C8CF9CA16D1D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5549,7 +5531,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5656,13 +5638,13 @@
         <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5671,13 +5653,13 @@
         <v>2243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5686,13 +5668,13 @@
         <v>2404</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,10 +5689,10 @@
         <v>377518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5722,10 +5704,10 @@
         <v>352714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5737,10 +5719,10 @@
         <v>730232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5811,13 +5793,13 @@
         <v>2109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5829,10 +5811,10 @@
         <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5841,13 +5823,13 @@
         <v>7115</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,10 +5844,10 @@
         <v>426287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5880,10 +5862,10 @@
         <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>755</v>
@@ -5892,13 +5874,13 @@
         <v>919858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5948,13 @@
         <v>19668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5981,13 +5963,13 @@
         <v>11411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5996,13 +5978,13 @@
         <v>31079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +5999,13 @@
         <v>537584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>827</v>
@@ -6032,13 +6014,13 @@
         <v>572065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -6047,13 +6029,13 @@
         <v>1109648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6103,13 @@
         <v>98458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -6136,13 +6118,13 @@
         <v>94130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
@@ -6151,13 +6133,13 @@
         <v>192588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6154,13 @@
         <v>625532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>1005</v>
@@ -6187,28 +6169,28 @@
         <v>653131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
       </c>
       <c r="N14" s="7">
-        <v>1278663</v>
+        <v>1278664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6232,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6276,13 +6258,13 @@
         <v>168467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -6291,13 +6273,13 @@
         <v>149737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>453</v>
@@ -6306,13 +6288,13 @@
         <v>318204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6309,13 @@
         <v>430619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>739</v>
@@ -6342,13 +6324,13 @@
         <v>443839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
         <v>1209</v>
@@ -6357,13 +6339,13 @@
         <v>874458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6413,13 @@
         <v>363187</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H19" s="7">
         <v>966</v>
@@ -6446,13 +6428,13 @@
         <v>617071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>1514</v>
@@ -6461,13 +6443,13 @@
         <v>980258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6464,13 @@
         <v>333625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
         <v>740</v>
@@ -6497,13 +6479,13 @@
         <v>408300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>1219</v>
@@ -6512,13 +6494,13 @@
         <v>741925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6568,13 @@
         <v>652050</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>1388</v>
@@ -6601,13 +6583,13 @@
         <v>879597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>2247</v>
@@ -6616,13 +6598,13 @@
         <v>1531647</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,16 +6616,16 @@
         <v>2515</v>
       </c>
       <c r="D23" s="7">
-        <v>2731165</v>
+        <v>2731164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H23" s="7">
         <v>3972</v>
@@ -6652,28 +6634,28 @@
         <v>2923621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>6487</v>
       </c>
       <c r="N23" s="7">
-        <v>5654786</v>
+        <v>5654785</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6667,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383215</v>
+        <v>3383214</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -6715,7 +6697,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7186433</v>
+        <v>7186432</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>

--- a/data/trans_orig/P16A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1854FB-9A53-4386-AF83-BF64D4DDF169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCB5C87-8064-422C-8A6E-D7051D84C5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4551598-2872-4966-9293-3E5DA835920A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{70D95125-929E-4916-8062-2106F2E8B1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="546">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -170,7 +170,7 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,61%</t>
@@ -227,7 +227,7 @@
     <t>97,54%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>12,73%</t>
@@ -284,7 +284,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,32%</t>
@@ -341,1111 +341,1342 @@
     <t>71,84%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>47,31%</t>
   </si>
   <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
     <t>54,74%</t>
   </si>
   <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
     <t>47,11%</t>
   </si>
   <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
 </sst>
 </file>
@@ -1857,8 +2088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F6EA8-8B7B-4C9E-AEE7-E1EB98B0A50C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB38CD9A-AAF2-44D9-8BFE-CE6115A47819}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2750,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>211031</v>
+        <v>112584</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>101</v>
@@ -2765,10 +2996,10 @@
         <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="I19" s="7">
-        <v>344512</v>
+        <v>157063</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>104</v>
@@ -2780,10 +3011,10 @@
         <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>552</v>
+        <v>288</v>
       </c>
       <c r="N19" s="7">
-        <v>555543</v>
+        <v>269648</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>107</v>
@@ -2801,10 +3032,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="D20" s="7">
-        <v>291435</v>
+        <v>179999</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
@@ -2816,10 +3047,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="I20" s="7">
-        <v>332330</v>
+        <v>185871</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>113</v>
@@ -2831,10 +3062,10 @@
         <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>632</v>
+        <v>386</v>
       </c>
       <c r="N20" s="7">
-        <v>623765</v>
+        <v>365869</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>116</v>
@@ -2852,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2867,10 +3098,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2882,10 +3113,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2899,55 +3130,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>413562</v>
+        <v>98446</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="I22" s="7">
-        <v>563384</v>
+        <v>187449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
-        <v>968</v>
+        <v>264</v>
       </c>
       <c r="N22" s="7">
-        <v>976946</v>
+        <v>285895</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,49 +3187,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2793</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7">
-        <v>2861963</v>
+        <v>111437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>2749</v>
+        <v>127</v>
       </c>
       <c r="I23" s="7">
-        <v>2815814</v>
+        <v>146459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
-        <v>5542</v>
+        <v>246</v>
       </c>
       <c r="N23" s="7">
-        <v>5677776</v>
+        <v>257896</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,63 +3238,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>420</v>
+      </c>
+      <c r="D25" s="7">
+        <v>413562</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="7">
+        <v>548</v>
+      </c>
+      <c r="I25" s="7">
+        <v>563384</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>968</v>
+      </c>
+      <c r="N25" s="7">
+        <v>976946</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2793</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2861963</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2749</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2815813</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5542</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5677776</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3076,8 +3463,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB091299-393B-4F51-97B5-5B991E0EF215}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F392A-9CC8-4A5C-B5C3-D465138E52C9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3093,7 +3480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3200,7 +3587,7 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -3221,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3230,13 +3617,13 @@
         <v>960</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3638,7 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>36</v>
@@ -3269,7 +3656,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3281,10 +3668,10 @@
         <v>881485</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3355,13 +3742,13 @@
         <v>6835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3370,13 +3757,13 @@
         <v>8515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3385,13 +3772,13 @@
         <v>15350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3793,13 @@
         <v>679403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3421,13 +3808,13 @@
         <v>600699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3436,13 +3823,13 @@
         <v>1280101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3897,13 @@
         <v>31364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3525,13 +3912,13 @@
         <v>22579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3540,13 +3927,13 @@
         <v>53943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3948,13 @@
         <v>648690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -3576,13 +3963,13 @@
         <v>683356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -3591,13 +3978,13 @@
         <v>1332046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +4052,13 @@
         <v>72529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -3680,13 +4067,13 @@
         <v>81078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -3695,13 +4082,13 @@
         <v>153607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +4103,13 @@
         <v>542088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -3731,13 +4118,13 @@
         <v>532994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>945</v>
@@ -3746,13 +4133,13 @@
         <v>1075082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +4207,13 @@
         <v>151348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>163</v>
@@ -3835,13 +4222,13 @@
         <v>177934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -3850,13 +4237,13 @@
         <v>329282</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +4258,13 @@
         <v>276996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>242</v>
@@ -3886,13 +4273,13 @@
         <v>268741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
@@ -3901,13 +4288,13 @@
         <v>545736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +4356,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>306318</v>
+        <v>157590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
-        <v>422</v>
+        <v>196</v>
       </c>
       <c r="I19" s="7">
-        <v>451435</v>
+        <v>201044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
-        <v>701</v>
+        <v>341</v>
       </c>
       <c r="N19" s="7">
-        <v>757753</v>
+        <v>358635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,49 +4407,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="D20" s="7">
-        <v>253319</v>
+        <v>152196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="I20" s="7">
-        <v>290357</v>
+        <v>152952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
-        <v>496</v>
+        <v>285</v>
       </c>
       <c r="N20" s="7">
-        <v>543676</v>
+        <v>305147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4458,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -4086,10 +4473,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -4101,10 +4488,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4118,55 +4505,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="D22" s="7">
-        <v>569354</v>
+        <v>148727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
-        <v>688</v>
+        <v>226</v>
       </c>
       <c r="I22" s="7">
-        <v>741541</v>
+        <v>250391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
-        <v>1206</v>
+        <v>360</v>
       </c>
       <c r="N22" s="7">
-        <v>1310895</v>
+        <v>399118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,49 +4562,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2686</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
-        <v>2852640</v>
+        <v>101124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
-        <v>2600</v>
+        <v>123</v>
       </c>
       <c r="I23" s="7">
-        <v>2805487</v>
+        <v>137405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
-        <v>5286</v>
+        <v>211</v>
       </c>
       <c r="N23" s="7">
-        <v>5658127</v>
+        <v>238529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,63 +4613,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>518</v>
+      </c>
+      <c r="D25" s="7">
+        <v>569354</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="7">
+        <v>688</v>
+      </c>
+      <c r="I25" s="7">
+        <v>741541</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1206</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1310894</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2686</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2852640</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2600</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2805487</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5286</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5658127</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421994</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3547028</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6492</v>
       </c>
-      <c r="N24" s="7">
-        <v>6969022</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="N27" s="7">
+        <v>6969021</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4295,8 +4838,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1668E-BF25-4096-A517-359E02A5E181}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EA4555-82FE-4A8C-A348-F5B865225265}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4312,7 +4855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,7 +4968,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4434,13 +4977,13 @@
         <v>902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4449,13 +4992,13 @@
         <v>902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +5016,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4485,10 +5028,10 @@
         <v>394853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4500,10 +5043,10 @@
         <v>814316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4574,13 +5117,13 @@
         <v>5633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4589,13 +5132,13 @@
         <v>1895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4604,13 +5147,13 @@
         <v>7529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +5168,13 @@
         <v>584863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -4640,10 +5183,10 @@
         <v>561649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4655,13 +5198,13 @@
         <v>1146511</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +5272,13 @@
         <v>21270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4744,13 +5287,13 @@
         <v>15256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4759,13 +5302,13 @@
         <v>36526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +5323,13 @@
         <v>647827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
         <v>650</v>
@@ -4795,13 +5338,13 @@
         <v>646130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -4810,13 +5353,13 @@
         <v>1293957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +5427,13 @@
         <v>88877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4899,13 +5442,13 @@
         <v>61417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4914,13 +5457,13 @@
         <v>150294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +5478,13 @@
         <v>557171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
         <v>546</v>
@@ -4950,13 +5493,13 @@
         <v>587660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
@@ -4965,13 +5508,13 @@
         <v>1144831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5582,13 @@
         <v>106585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5054,13 +5597,13 @@
         <v>150066</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -5069,13 +5612,13 @@
         <v>256651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5633,13 @@
         <v>371333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5105,13 +5648,13 @@
         <v>346783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -5120,13 +5663,13 @@
         <v>718116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,49 +5731,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7">
-        <v>281223</v>
+        <v>140214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="I19" s="7">
-        <v>399988</v>
+        <v>170967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
-        <v>631</v>
+        <v>296</v>
       </c>
       <c r="N19" s="7">
-        <v>681210</v>
+        <v>311181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,49 +5782,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="D20" s="7">
-        <v>310105</v>
+        <v>194116</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="I20" s="7">
-        <v>377943</v>
+        <v>206795</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
-        <v>651</v>
+        <v>383</v>
       </c>
       <c r="N20" s="7">
-        <v>688049</v>
+        <v>400911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,10 +5833,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5305,10 +5848,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5320,10 +5863,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5337,55 +5880,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>501</v>
+        <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>503588</v>
+        <v>141009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
-        <v>537</v>
+        <v>170</v>
       </c>
       <c r="I22" s="7">
-        <v>629524</v>
+        <v>229021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="M22" s="7">
-        <v>1038</v>
+        <v>335</v>
       </c>
       <c r="N22" s="7">
-        <v>1133112</v>
+        <v>370030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,49 +5937,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2730</v>
+        <v>137</v>
       </c>
       <c r="D23" s="7">
-        <v>2890762</v>
+        <v>115989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
-        <v>2801</v>
+        <v>131</v>
       </c>
       <c r="I23" s="7">
-        <v>2915018</v>
+        <v>171148</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
-        <v>5531</v>
+        <v>268</v>
       </c>
       <c r="N23" s="7">
-        <v>5805780</v>
+        <v>287137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,63 +5988,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>501</v>
+      </c>
+      <c r="D25" s="7">
+        <v>503588</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="7">
+        <v>537</v>
+      </c>
+      <c r="I25" s="7">
+        <v>629524</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1038</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1133112</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2730</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2890762</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2801</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2915018</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5531</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5805780</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5514,8 +6213,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2C467-B16D-4424-84D0-C8CF9CA16D1D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D2592E-876D-49CB-A60A-BB7779AC67F9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5531,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5635,46 +6334,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>2404</v>
+        <v>1790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +6385,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>377518</v>
+        <v>399818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5701,13 +6400,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>352714</v>
+        <v>311579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5716,13 +6415,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>730232</v>
+        <v>711397</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5737,7 +6436,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -5752,7 +6451,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -5767,7 +6466,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -5790,46 +6489,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2109</v>
+        <v>1979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>5006</v>
+        <v>4633</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>432</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>372</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>7115</v>
+        <v>6612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +6540,13 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>426287</v>
+        <v>421568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5856,31 +6555,31 @@
         <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>493571</v>
+        <v>506871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>755</v>
       </c>
       <c r="N8" s="7">
-        <v>919858</v>
+        <v>928439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,7 +6591,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -5907,7 +6606,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -5922,7 +6621,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -5945,46 +6644,46 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>19668</v>
+        <v>18593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>11411</v>
+        <v>10876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>31079</v>
+        <v>29469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,46 +6695,46 @@
         <v>527</v>
       </c>
       <c r="D11" s="7">
-        <v>537584</v>
+        <v>517745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="H11" s="7">
         <v>827</v>
       </c>
       <c r="I11" s="7">
-        <v>572065</v>
+        <v>531592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
       </c>
       <c r="N11" s="7">
-        <v>1109648</v>
+        <v>1049337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6746,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -6062,7 +6761,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -6077,7 +6776,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -6100,46 +6799,46 @@
         <v>97</v>
       </c>
       <c r="D13" s="7">
-        <v>98458</v>
+        <v>95251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
       </c>
       <c r="I13" s="7">
-        <v>94130</v>
+        <v>85389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>233</v>
       </c>
       <c r="N13" s="7">
-        <v>192588</v>
+        <v>180640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,46 +6850,46 @@
         <v>568</v>
       </c>
       <c r="D14" s="7">
-        <v>625532</v>
+        <v>792535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
         <v>1005</v>
       </c>
       <c r="I14" s="7">
-        <v>653131</v>
+        <v>627492</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
       </c>
       <c r="N14" s="7">
-        <v>1278664</v>
+        <v>1420027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6901,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -6217,7 +6916,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -6232,7 +6931,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6255,46 +6954,46 @@
         <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>168467</v>
+        <v>158793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
       </c>
       <c r="I16" s="7">
-        <v>149737</v>
+        <v>137169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
         <v>453</v>
       </c>
       <c r="N16" s="7">
-        <v>318204</v>
+        <v>295962</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,46 +7005,46 @@
         <v>470</v>
       </c>
       <c r="D17" s="7">
-        <v>430619</v>
+        <v>401444</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
         <v>739</v>
       </c>
       <c r="I17" s="7">
-        <v>443839</v>
+        <v>407718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="M17" s="7">
         <v>1209</v>
       </c>
       <c r="N17" s="7">
-        <v>874458</v>
+        <v>809162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +7056,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -6372,7 +7071,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -6387,7 +7086,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -6407,49 +7106,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="D19" s="7">
-        <v>363187</v>
+        <v>175550</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
-        <v>966</v>
+        <v>382</v>
       </c>
       <c r="I19" s="7">
-        <v>617071</v>
+        <v>388067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="M19" s="7">
-        <v>1514</v>
+        <v>656</v>
       </c>
       <c r="N19" s="7">
-        <v>980258</v>
+        <v>563617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,49 +7157,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>479</v>
+        <v>295</v>
       </c>
       <c r="D20" s="7">
-        <v>333625</v>
+        <v>191732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
+        <v>445</v>
+      </c>
+      <c r="I20" s="7">
+        <v>220301</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M20" s="7">
         <v>740</v>
       </c>
-      <c r="I20" s="7">
-        <v>408300</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1219</v>
-      </c>
       <c r="N20" s="7">
-        <v>741925</v>
+        <v>412033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,10 +7208,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696812</v>
+        <v>367282</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -6524,10 +7223,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -6539,10 +7238,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1722183</v>
+        <v>975650</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -6556,55 +7255,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>859</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7">
-        <v>652050</v>
+        <v>163003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
-        <v>1388</v>
+        <v>584</v>
       </c>
       <c r="I22" s="7">
-        <v>879597</v>
+        <v>274886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
-        <v>2247</v>
+        <v>858</v>
       </c>
       <c r="N22" s="7">
-        <v>1531647</v>
+        <v>437889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,49 +7312,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2515</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7">
-        <v>2731164</v>
+        <v>119756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="H23" s="7">
-        <v>3972</v>
+        <v>295</v>
       </c>
       <c r="I23" s="7">
-        <v>2923621</v>
+        <v>149839</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="M23" s="7">
-        <v>6487</v>
+        <v>479</v>
       </c>
       <c r="N23" s="7">
-        <v>5654785</v>
+        <v>269595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,63 +7363,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>859</v>
+      </c>
+      <c r="D25" s="7">
+        <v>613339</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1388</v>
+      </c>
+      <c r="I25" s="7">
+        <v>902641</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2247</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1515979</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2515</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2844598</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3972</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2755392</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6487</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5599990</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383214</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457937</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658033</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>8734</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186432</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="N27" s="7">
+        <v>7115969</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
